--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="104">
   <si>
     <t>Profile</t>
   </si>
@@ -47,16 +47,58 @@
     <t>Method</t>
   </si>
   <si>
-    <t>DecisionPrecisionPlus</t>
+    <t>DecisionPrecisionPlusabstract</t>
+  </si>
+  <si>
+    <t>DecisionPrecisionPlus: abstract</t>
+  </si>
+  <si>
+    <t>[not stated]#social-history</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>DecisionPrecisionPlusObservationsmoking</t>
+  </si>
+  <si>
+    <t>DecisionPrecisionPlus Observation[smoking]</t>
+  </si>
+  <si>
+    <t>[not stated]#social-history, Observation Category Codes#social-history</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-smoking-status-observation-codes (extensible)</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>DecisionPrecisionPlusObservationsocial</t>
+  </si>
+  <si>
+    <t>DecisionPrecisionPlus Observation[social]</t>
   </si>
   <si>
     <t>[not stated]#social-history, Observation Category Codes#social-history, US Core Tags CodeSystem#sdoh</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (preferred)</t>
+    <t>http://va.gov/fhir/ValueSet/DPPLungCancerScreeningOE (required)</t>
   </si>
   <si>
     <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
@@ -65,9 +107,6 @@
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
     <t>ImmunizationObservation</t>
   </si>
   <si>
@@ -77,12 +116,6 @@
     <t>LOINC#31044-1</t>
   </si>
   <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
-  </si>
-  <si>
     <t>LabObservationChemhemtoxriaserObservation</t>
   </si>
   <si>
@@ -200,9 +233,6 @@
     <t>Observation Category Codes#exam</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
-  </si>
-  <si>
     <t>ObservationImagingResult</t>
   </si>
   <si>
@@ -240,15 +270,6 @@
   </si>
   <si>
     <t>Observation Category Codes#social-history</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-smoking-status-observation-codes (extensible)</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>CodeableConcept</t>
   </si>
   <si>
     <t>VitalSigns</t>
@@ -436,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -482,1364 +503,1434 @@
         <v>11</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>25</v>
-      </c>
       <c r="D10" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G32" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F32" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>13</v>
-      </c>
       <c r="H32" t="s" s="2">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="106">
   <si>
     <t>Profile</t>
   </si>
@@ -50,7 +50,7 @@
     <t>DecisionPrecisionPlusabstract</t>
   </si>
   <si>
-    <t>DecisionPrecisionPlus: abstract</t>
+    <t>Decision Precision Plus: abstract</t>
   </si>
   <si>
     <t>[not stated]#social-history</t>
@@ -71,10 +71,16 @@
     <t>optional</t>
   </si>
   <si>
+    <t>DecisionPrecisionPlusObservationsituation</t>
+  </si>
+  <si>
+    <t>Decision Precision Plus Observation[situation]</t>
+  </si>
+  <si>
     <t>DecisionPrecisionPlusObservationsmoking</t>
   </si>
   <si>
-    <t>DecisionPrecisionPlus Observation[smoking]</t>
+    <t>Decision Precision Plus Observation[smoking]</t>
   </si>
   <si>
     <t>[not stated]#social-history, Observation Category Codes#social-history</t>
@@ -92,7 +98,7 @@
     <t>DecisionPrecisionPlusObservationsocial</t>
   </si>
   <si>
-    <t>DecisionPrecisionPlus Observation[social]</t>
+    <t>Decision Precision Plus Observation[social]</t>
   </si>
   <si>
     <t>[not stated]#social-history, Observation Category Codes#social-history, US Core Tags CodeSystem#sdoh</t>
@@ -457,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -541,7 +547,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>14</v>
@@ -550,13 +556,13 @@
         <v>14</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -570,28 +576,28 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="H4" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>30</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -605,28 +611,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -640,28 +646,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="C6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="F6" t="s" s="2">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -675,28 +681,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="G7" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -710,28 +716,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="C8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="G8" t="s" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -745,13 +751,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
@@ -760,13 +766,13 @@
         <v>14</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -786,22 +792,22 @@
         <v>43</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -815,28 +821,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="C11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="F11" t="s" s="2">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -856,7 +862,7 @@
         <v>48</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>14</v>
@@ -865,13 +871,13 @@
         <v>14</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>18</v>
@@ -891,7 +897,7 @@
         <v>50</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>14</v>
@@ -900,13 +906,13 @@
         <v>14</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -926,22 +932,22 @@
         <v>52</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -955,28 +961,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="C15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="F15" t="s" s="2">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -996,7 +1002,7 @@
         <v>57</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>14</v>
@@ -1005,13 +1011,13 @@
         <v>14</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -1031,7 +1037,7 @@
         <v>59</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>14</v>
@@ -1040,13 +1046,13 @@
         <v>14</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>18</v>
@@ -1066,7 +1072,7 @@
         <v>61</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>14</v>
@@ -1075,13 +1081,13 @@
         <v>14</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -1101,7 +1107,7 @@
         <v>63</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>14</v>
@@ -1110,13 +1116,13 @@
         <v>14</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -1136,7 +1142,7 @@
         <v>65</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>14</v>
@@ -1145,13 +1151,13 @@
         <v>14</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>18</v>
@@ -1171,7 +1177,7 @@
         <v>67</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>14</v>
@@ -1180,13 +1186,13 @@
         <v>14</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>18</v>
@@ -1206,7 +1212,7 @@
         <v>69</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>14</v>
@@ -1215,13 +1221,13 @@
         <v>14</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>18</v>
@@ -1241,7 +1247,7 @@
         <v>71</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>14</v>
@@ -1250,13 +1256,13 @@
         <v>14</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1270,14 +1276,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="C24" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="D24" t="s" s="2">
         <v>14</v>
       </c>
@@ -1285,13 +1291,13 @@
         <v>14</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>18</v>
@@ -1305,28 +1311,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="D25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G25" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>18</v>
@@ -1346,7 +1352,7 @@
         <v>80</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
@@ -1355,13 +1361,13 @@
         <v>14</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>18</v>
@@ -1381,7 +1387,7 @@
         <v>82</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
@@ -1390,13 +1396,13 @@
         <v>14</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>18</v>
@@ -1416,7 +1422,7 @@
         <v>84</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
@@ -1425,13 +1431,13 @@
         <v>14</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>18</v>
@@ -1445,14 +1451,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="C29" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="D29" t="s" s="2">
         <v>14</v>
       </c>
@@ -1460,13 +1466,13 @@
         <v>14</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>18</v>
@@ -1480,28 +1486,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="F30" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="G30" t="s" s="2">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>18</v>
@@ -1518,7 +1524,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>14</v>
@@ -1527,7 +1533,7 @@
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>14</v>
@@ -1536,7 +1542,7 @@
         <v>14</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>18</v>
@@ -1550,28 +1556,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="F32" t="s" s="2">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>18</v>
@@ -1585,28 +1591,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>18</v>
@@ -1623,7 +1629,7 @@
         <v>14</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>14</v>
@@ -1641,7 +1647,7 @@
         <v>14</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>18</v>
@@ -1658,7 +1664,7 @@
         <v>14</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>14</v>
@@ -1667,16 +1673,16 @@
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>30</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>18</v>
@@ -1693,7 +1699,7 @@
         <v>14</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>14</v>
@@ -1702,7 +1708,7 @@
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>14</v>
@@ -1711,7 +1717,7 @@
         <v>14</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>18</v>
@@ -1728,17 +1734,17 @@
         <v>14</v>
       </c>
       <c r="B37" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="F37" t="s" s="2">
         <v>14</v>
       </c>
@@ -1746,7 +1752,7 @@
         <v>14</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>18</v>
@@ -1760,28 +1766,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>18</v>
@@ -1795,28 +1801,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>18</v>
@@ -1833,7 +1839,7 @@
         <v>14</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>14</v>
@@ -1842,7 +1848,7 @@
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>14</v>
@@ -1851,7 +1857,7 @@
         <v>14</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>18</v>
@@ -1868,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>14</v>
@@ -1877,7 +1883,7 @@
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>14</v>
@@ -1886,7 +1892,7 @@
         <v>14</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>18</v>
@@ -1903,7 +1909,7 @@
         <v>14</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>14</v>
@@ -1912,7 +1918,7 @@
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>14</v>
@@ -1921,7 +1927,7 @@
         <v>14</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>18</v>
@@ -1930,6 +1936,41 @@
         <v>14</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="104">
   <si>
     <t>Profile</t>
   </si>
@@ -71,12 +71,6 @@
     <t>optional</t>
   </si>
   <si>
-    <t>DecisionPrecisionPlusObservationsituation</t>
-  </si>
-  <si>
-    <t>Decision Precision Plus Observation[situation]</t>
-  </si>
-  <si>
     <t>DecisionPrecisionPlusObservationsmoking</t>
   </si>
   <si>
@@ -104,7 +98,7 @@
     <t>[not stated]#social-history, Observation Category Codes#social-history, US Core Tags CodeSystem#sdoh</t>
   </si>
   <si>
-    <t>http://va.gov/fhir/ValueSet/DPPLungCancerScreeningOE (required)</t>
+    <t>http://va.gov/fhir/ValueSet/DPPLungCancerScreeningOED (required)</t>
   </si>
   <si>
     <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
@@ -463,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -547,7 +541,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>14</v>
@@ -556,13 +550,13 @@
         <v>14</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -576,13 +570,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>14</v>
@@ -591,13 +585,13 @@
         <v>14</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -611,28 +605,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -646,28 +640,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -681,28 +675,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="G7" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -716,13 +710,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>14</v>
@@ -731,13 +725,13 @@
         <v>14</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -751,13 +745,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
@@ -766,13 +760,13 @@
         <v>14</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -792,22 +786,22 @@
         <v>43</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -821,28 +815,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -862,7 +856,7 @@
         <v>48</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>14</v>
@@ -871,13 +865,13 @@
         <v>14</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>18</v>
@@ -897,7 +891,7 @@
         <v>50</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>14</v>
@@ -906,13 +900,13 @@
         <v>14</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -932,22 +926,22 @@
         <v>52</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -961,28 +955,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -1002,7 +996,7 @@
         <v>57</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>14</v>
@@ -1011,13 +1005,13 @@
         <v>14</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -1037,7 +1031,7 @@
         <v>59</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>14</v>
@@ -1046,13 +1040,13 @@
         <v>14</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>18</v>
@@ -1072,7 +1066,7 @@
         <v>61</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>14</v>
@@ -1081,13 +1075,13 @@
         <v>14</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -1107,7 +1101,7 @@
         <v>63</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>14</v>
@@ -1116,13 +1110,13 @@
         <v>14</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -1142,7 +1136,7 @@
         <v>65</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>14</v>
@@ -1151,13 +1145,13 @@
         <v>14</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>18</v>
@@ -1177,7 +1171,7 @@
         <v>67</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>14</v>
@@ -1186,13 +1180,13 @@
         <v>14</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>18</v>
@@ -1212,7 +1206,7 @@
         <v>69</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>14</v>
@@ -1221,13 +1215,13 @@
         <v>14</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>18</v>
@@ -1247,7 +1241,7 @@
         <v>71</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>14</v>
@@ -1256,13 +1250,13 @@
         <v>14</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1276,13 +1270,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>14</v>
@@ -1291,13 +1285,13 @@
         <v>14</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>18</v>
@@ -1311,28 +1305,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="D25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="G25" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>18</v>
@@ -1352,7 +1346,7 @@
         <v>80</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
@@ -1361,13 +1355,13 @@
         <v>14</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>18</v>
@@ -1387,7 +1381,7 @@
         <v>82</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
@@ -1396,13 +1390,13 @@
         <v>14</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>18</v>
@@ -1422,7 +1416,7 @@
         <v>84</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
@@ -1431,13 +1425,13 @@
         <v>14</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>18</v>
@@ -1451,13 +1445,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>14</v>
@@ -1466,13 +1460,13 @@
         <v>14</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>18</v>
@@ -1486,28 +1480,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>18</v>
@@ -1524,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>14</v>
@@ -1533,7 +1527,7 @@
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>14</v>
@@ -1542,7 +1536,7 @@
         <v>14</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>18</v>
@@ -1556,28 +1550,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="F32" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="G32" t="s" s="2">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>18</v>
@@ -1591,28 +1585,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s" s="2">
+      <c r="F33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>32</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>18</v>
@@ -1629,7 +1623,7 @@
         <v>14</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>14</v>
@@ -1647,7 +1641,7 @@
         <v>14</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>18</v>
@@ -1664,7 +1658,7 @@
         <v>14</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>14</v>
@@ -1673,7 +1667,7 @@
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>14</v>
@@ -1682,7 +1676,7 @@
         <v>14</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>18</v>
@@ -1699,7 +1693,7 @@
         <v>14</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>14</v>
@@ -1708,7 +1702,7 @@
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>14</v>
@@ -1717,7 +1711,7 @@
         <v>14</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>18</v>
@@ -1734,7 +1728,7 @@
         <v>14</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>14</v>
@@ -1743,7 +1737,7 @@
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>14</v>
@@ -1752,7 +1746,7 @@
         <v>14</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>18</v>
@@ -1766,28 +1760,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>18</v>
@@ -1801,28 +1795,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="F39" t="s" s="2">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>18</v>
@@ -1839,7 +1833,7 @@
         <v>14</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>14</v>
@@ -1848,7 +1842,7 @@
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>14</v>
@@ -1857,7 +1851,7 @@
         <v>14</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>18</v>
@@ -1874,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>14</v>
@@ -1883,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>14</v>
@@ -1892,7 +1886,7 @@
         <v>14</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>18</v>
@@ -1909,7 +1903,7 @@
         <v>14</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>14</v>
@@ -1918,7 +1912,7 @@
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>14</v>
@@ -1927,7 +1921,7 @@
         <v>14</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>18</v>
@@ -1936,41 +1930,6 @@
         <v>14</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E43" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K43" t="s" s="2">
         <v>14</v>
       </c>
     </row>
